--- a/Discharge/Station1_2021-07-14_1000.xlsx
+++ b/Discharge/Station1_2021-07-14_1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efarq\OneDrive\Documents\Ecuador2021\Ecuador2021\Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD36E18A-B492-4FF4-B0C4-3982A36743E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D67CD5-196A-4FE4-BCA2-4790755874DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2220" windowWidth="10050" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>velocity</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>segment</t>
@@ -372,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -391,21 +388,24 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <f>A2/100</f>
@@ -427,7 +427,7 @@
         <v>0.08</v>
       </c>
       <c r="D3">
-        <f>(A3/100+(A4/100-A3/100)/2)</f>
+        <f t="shared" ref="D3:D10" si="0">(A3/100+(A4/100-A3/100)/2)</f>
         <v>0.5</v>
       </c>
       <c r="E3">
@@ -446,11 +446,11 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D4">
-        <f>(A4/100+(A5/100-A4/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">(D4-D3)*(B4/100)*C4</f>
+        <f t="shared" ref="E4:E7" si="1">(D4-D3)*(B4/100)*C4</f>
         <v>2.4500000000000025E-3</v>
       </c>
     </row>
@@ -465,11 +465,11 @@
         <v>0.1</v>
       </c>
       <c r="D5">
-        <f>(A5/100+(A6/100-A5/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7499999999999974E-3</v>
       </c>
     </row>
@@ -484,11 +484,11 @@
         <v>0.1</v>
       </c>
       <c r="D6">
-        <f>(A6/100+(A7/100-A6/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7000000000000016E-3</v>
       </c>
     </row>
@@ -503,11 +503,11 @@
         <v>0.08</v>
       </c>
       <c r="D7">
-        <f>(A7/100+(A8/100-A7/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3599999999999981E-3</v>
       </c>
     </row>
@@ -522,7 +522,7 @@
         <v>0.06</v>
       </c>
       <c r="D8">
-        <f>(A8/100+(A9/100-A8/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="E8">
@@ -541,7 +541,7 @@
         <v>0.02</v>
       </c>
       <c r="D9">
-        <f>(A9/100+(A10/100-A9/100)/2)</f>
+        <f t="shared" si="0"/>
         <v>1.0150000000000001</v>
       </c>
       <c r="E9">
@@ -552,6 +552,26 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>103</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E10">
+        <f>(D10-D9)*(B10/100)*C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <f>(C11-C10)*(A11/100)*B11</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
